--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -502,11 +502,23 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>45150.69671374686</v>
+        <v>45150.69671375</v>
       </c>
     </row>
     <row r="4">
-      <c r="C4" s="3" t="n"/>
+      <c r="A4" t="n">
+        <v>1005</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>produto10</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>12/08/2023 23:47:04</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="C5" s="3" t="n"/>

--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -507,16 +507,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1005</v>
+        <v>2002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>produto10</t>
+          <t>Produto10</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>12/08/2023 23:47:04</t>
+          <t>13/08/2023 21:32:53</t>
         </is>
       </c>
     </row>

--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -18,20 +18,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -55,18 +47,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,23 +429,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="18.28515625" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.140625" customWidth="1" style="1" min="4" max="12"/>
-    <col width="9.140625" customWidth="1" style="1" min="13" max="16384"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="18.5703125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -494,15 +479,17 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Produto5</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>45150.69671375</v>
+          <t>Produto10</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>15/08/2023 23:58:28</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -514,23 +501,11 @@
           <t>Produto10</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>13/08/2023 21:32:53</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="3" t="n"/>
-    </row>
-    <row r="6">
-      <c r="C6" s="3" t="n"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="C13" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>

--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -479,31 +479,61 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2002</v>
+        <v>1010</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Produto10</t>
+          <t>Blusa</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>15/08/2023 23:58:28</t>
+          <t>17/08/2023 22:37:44</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2002</v>
+        <v>1313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Produto10</t>
+          <t>Meia</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13/08/2023 21:32:53</t>
+          <t>17/08/2023 22:51:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1212</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Touca</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>18/08/2023 00:50:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2323</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Touca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>18/08/2023 00:52:34</t>
         </is>
       </c>
     </row>

--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -537,6 +537,36 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tigela</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2023-08-18 01:15:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prato</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2023-08-18 01:17:31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/db_excel.xlsx
+++ b/db_excel.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -543,27 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tigela</t>
+          <t>Garfo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023-08-18 01:15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>27</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Prato</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2023-08-18 01:17:31</t>
+          <t>2023-08-18 02:06:56</t>
         </is>
       </c>
     </row>
